--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1703521.698287719</v>
+        <v>1807701.332738791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>306.8147867690923</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>273.9330293973886</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>139.8654338699391</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>45.10723554369593</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>51.77171992515652</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>287.7971664995897</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>167.5510392912021</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.41413366410639</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>137.5290492434476</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>232.3604905782769</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>172.3305469651114</v>
       </c>
       <c r="T10" t="n">
-        <v>10.96359041239718</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011873</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>134.5665975534164</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.9640996397611</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>64.35711883683385</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>207.6191668645424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>160.5201563761534</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>11.76284745948055</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>36.00502760852028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>212.407686093473</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.88641949135548</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592125</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.3007612348439</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2244.121949002408</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.72178906653</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.72178906653</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.72178906653</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431.1278029579775</v>
+        <v>820.4128495803452</v>
       </c>
       <c r="C4" t="n">
-        <v>262.1916200300706</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>112.0749806177348</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015076</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579775</v>
+        <v>1002.061314410585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.333407402326</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2736.270520058755</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.270520058755</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0179941377679</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1254.768117210855</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1000.083629004968</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>710.6664589680076</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X7" t="n">
-        <v>710.6664589680076</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.6664589680076</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1402.467102746355</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1044.201404139605</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>658.4131515413603</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>247.4272467517528</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1663.392831285302</v>
       </c>
       <c r="T10" t="n">
-        <v>1634.703872922951</v>
+        <v>1441.626215854828</v>
       </c>
       <c r="U10" t="n">
-        <v>1634.703872922951</v>
+        <v>1152.523348980472</v>
       </c>
       <c r="V10" t="n">
-        <v>1380.019384717064</v>
+        <v>897.8388607745846</v>
       </c>
       <c r="W10" t="n">
-        <v>1090.602214680103</v>
+        <v>608.421690737624</v>
       </c>
       <c r="X10" t="n">
-        <v>862.6126637820859</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="Y10" t="n">
-        <v>641.8200846385557</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5072,7 +5074,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5236,13 +5238,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,46 +5281,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>547.5889719879178</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,22 +5524,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.669523688502</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.252353651541</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>961.2628027535235</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535235</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228102</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>962.6357307816187</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>793.6995478537118</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>643.582908441376</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6658,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.284195611858</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>3173.601046153955</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>3173.601046153955</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.48440674162</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159227</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218394</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296632</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822171</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998111</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729146</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389154</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098139</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671698</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W34" t="n">
-        <v>1397.332650892738</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X34" t="n">
-        <v>1169.343099994721</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.5505208511906</v>
+        <v>3173.601046153955</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488567</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606599</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>733.7765431483241</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>585.863449565931</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680206</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027829005</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>130.0655716250986</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318806</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>2965.647484649469</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>2796.711301721562</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4140.179737764103</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3885.495249558217</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3596.078079521256</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3368.088528623239</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3147.295949479709</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851626</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572557</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449199</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7425191625268</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>229.7425191625268</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667956</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>46.45968844822815</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.1735436840669</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>102.889702261794</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>44.51847645928561</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6.726664722474396</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>6.176967258621772</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.4693302300316</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>112.223377057425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>61.35027805667508</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26320,31 +26322,31 @@
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907544</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
@@ -26353,7 +26355,7 @@
         <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815705</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815711</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,7 +26432,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187514</v>
+        <v>-973439.502618752</v>
       </c>
       <c r="C6" t="n">
         <v>355305.2431088411</v>
       </c>
       <c r="D6" t="n">
-        <v>355305.2431088411</v>
+        <v>355305.2431088415</v>
       </c>
       <c r="E6" t="n">
-        <v>106511.9869426856</v>
+        <v>106511.9869426857</v>
       </c>
       <c r="F6" t="n">
+        <v>431924.4487500411</v>
+      </c>
+      <c r="G6" t="n">
+        <v>431924.4487500413</v>
+      </c>
+      <c r="H6" t="n">
         <v>431924.4487500414</v>
       </c>
-      <c r="G6" t="n">
-        <v>431924.4487500415</v>
-      </c>
-      <c r="H6" t="n">
-        <v>431924.4487500413</v>
-      </c>
       <c r="I6" t="n">
-        <v>431924.4487500408</v>
+        <v>431924.448750041</v>
       </c>
       <c r="J6" t="n">
-        <v>214393.2463527638</v>
+        <v>214393.2463527635</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.448750041</v>
+        <v>431924.4487500409</v>
       </c>
       <c r="L6" t="n">
-        <v>431924.4487500413</v>
+        <v>431924.4487500411</v>
       </c>
       <c r="M6" t="n">
-        <v>346869.4208145289</v>
+        <v>346869.4208145292</v>
       </c>
       <c r="N6" t="n">
         <v>431924.4487500408</v>
@@ -26561,7 +26563,7 @@
         <v>431924.4487500408</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.4487500408</v>
+        <v>431924.4487500413</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26799,10 +26801,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>58.45810500191527</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>75.30793932002439</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27.38138722868871</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.3267271028732</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>199.2234520337454</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>61.44380221782336</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.6607989144108</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2955217249308</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>273.3926764100058</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>153.8774480777767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17.43847836633054</v>
       </c>
       <c r="T10" t="n">
-        <v>208.585358863772</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29949,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913755</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32563,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32710,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32722,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>309.9424824173362</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>321.1112257697157</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342392</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770453</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>91.80490927281521</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>167.3462379728918</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299894</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>187.1368183553855</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807701.332738791</v>
+        <v>1803688.722724797</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.52360802547764</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>273.9330293973886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.8654338699391</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>113.3549415804261</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>204.0005215907917</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>287.7971664995897</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>18.02571356436873</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1113,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.41413366410639</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>137.5290492434476</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>235.7835939636772</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3305469651114</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>78.68827782033955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="F16" t="n">
-        <v>62.14989839348819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695564</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>137.9640996397611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>253.2918698186439</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>64.35711883683385</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>67.00771475394289</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>160.5201563761534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.407686093473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>85.08368458989422</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>146.7151441592125</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>119.6760079449695</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1268.033402877526</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2354.0217593722</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.556001111121</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.4128495803452</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3121.275423376369</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>2899.508807945895</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>2610.405941071539</v>
       </c>
       <c r="V4" t="n">
-        <v>1450.843444452132</v>
+        <v>2610.405941071539</v>
       </c>
       <c r="W4" t="n">
-        <v>1450.843444452132</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="X4" t="n">
-        <v>1222.853893554115</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="Y4" t="n">
-        <v>1002.061314410585</v>
+        <v>2320.988771034578</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2718.633196935045</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.6070935315613</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1197.048137505331</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.255558361801</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.429619686767</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.467102746355</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1044.201404139605</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>658.4131515413603</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>247.4272467517528</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3087.440575181215</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2756.377687837644</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686767</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1663.392831285302</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1441.626215854828</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1152.523348980472</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>897.8388607745846</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>608.421690737624</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396066</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E16" t="n">
-        <v>547.5889719879178</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,7 +5989,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6314,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153955</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153955</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.48440674162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376196</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998111</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098139</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671698</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3173.601046153955</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474262</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2965.647484649469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2796.711301721562</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4140.179737764103</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3885.495249558217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3596.078079521256</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3368.088528623239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3147.295949479709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.8692823226941</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947872</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1817.401535437329</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1562.717047231442</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1273.299877194481</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1045.310326296464</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.5177471529338</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>111.1976478713723</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="F16" t="n">
-        <v>83.27114962944304</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>32.89260457060021</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>120.3791545843333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.726664722474396</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.176967258621772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>80.44045370237463</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.4693302300316</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>61.35027805667508</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815711</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
-      <c r="C4" t="n">
-        <v>90964.01098815705</v>
-      </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.502618752</v>
+        <v>-973439.5026187514</v>
       </c>
       <c r="C6" t="n">
+        <v>355305.2431088408</v>
+      </c>
+      <c r="D6" t="n">
         <v>355305.2431088411</v>
       </c>
-      <c r="D6" t="n">
-        <v>355305.2431088415</v>
-      </c>
       <c r="E6" t="n">
-        <v>106511.9869426857</v>
+        <v>106164.6076883288</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.4487500411</v>
+        <v>431577.0694956841</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500413</v>
+        <v>431577.0694956841</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.4487500414</v>
+        <v>431577.0694956842</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.448750041</v>
+        <v>431577.0694956843</v>
       </c>
       <c r="J6" t="n">
-        <v>214393.2463527635</v>
+        <v>214045.8670984067</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="L6" t="n">
-        <v>431924.4487500411</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="M6" t="n">
-        <v>346869.4208145292</v>
+        <v>346522.0415601721</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500408</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.4487500408</v>
+        <v>431577.0694956841</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.4487500413</v>
+        <v>431577.0694956838</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>346.4067620467841</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>75.30793932002439</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>27.38138722868871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>76.41408375101582</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>161.2723701802158</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>61.44380221782336</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>78.32670684546936</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>198.2955217249308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>273.3926764100058</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,22 +27906,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.21157799522473</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>17.43847836633054</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32712,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.402257299894</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1803688.722724797</v>
+        <v>1805449.253027583</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.52360802547764</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5689935409305</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>113.3549415804261</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,10 +876,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>199.0787065859052</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>204.0005215907917</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>193.4106714404662</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18.02571356436873</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.3635537979622</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>235.7835939636772</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>106.3434154283418</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>4.974488840438626</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>118.8241514613401</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695564</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.2043588120837</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00771475394289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.3852063573442</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>44.30292280757614</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.299101484276</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.299101484276</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.033402877526</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,16 +4333,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548398</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4427,22 +4427,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3121.275423376369</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2899.508807945895</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2610.405941071539</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2610.405941071539</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1813.303537713132</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,13 +4652,13 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.5757713318899</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>529.639588403983</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>379.5229489916472</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>231.6098554092541</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>84.71990791134377</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>84.71990791134377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>84.71990791134377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>731.3215358191806</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>320.335631029573</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>309.3035849149736</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3087.440575181215</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2756.377687837644</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.60903256753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4953,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5032,34 +5032,34 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454435</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,16 +6244,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.438627038651</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>849.5024441107445</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>699.3858046984087</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1938.286391947399</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1648.869221910438</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1420.879671012421</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.087091868891</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>229.5592957321579</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40.09054721822741</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.4594738061305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.76050189075468</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.42624789262628</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>31.13893193492464</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369782</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583919</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
@@ -26331,16 +26331,16 @@
         <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
@@ -26349,10 +26349,10 @@
         <v>544823.9547907538</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187514</v>
+        <v>-973439.5026187513</v>
       </c>
       <c r="C6" t="n">
-        <v>355305.2431088408</v>
+        <v>355305.2431088412</v>
       </c>
       <c r="D6" t="n">
-        <v>355305.2431088411</v>
+        <v>355305.2431088412</v>
       </c>
       <c r="E6" t="n">
-        <v>106164.6076883288</v>
+        <v>106477.2490172499</v>
       </c>
       <c r="F6" t="n">
-        <v>431577.0694956841</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="G6" t="n">
-        <v>431577.0694956841</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="H6" t="n">
-        <v>431577.0694956842</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="I6" t="n">
-        <v>431577.0694956843</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="J6" t="n">
-        <v>214045.8670984067</v>
+        <v>214358.5084273282</v>
       </c>
       <c r="K6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="L6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246051</v>
       </c>
       <c r="M6" t="n">
-        <v>346522.0415601721</v>
+        <v>346834.6828890932</v>
       </c>
       <c r="N6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="O6" t="n">
-        <v>431577.0694956841</v>
+        <v>431889.710824605</v>
       </c>
       <c r="P6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246051</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>346.4067620467841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12.66894511512311</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>76.41408375101582</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>87.44429175068578</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>161.2723701802158</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>161.2723701802167</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>78.32670684546936</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>54.24421058935823</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>15.21157799522473</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954396</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34219,7 +34219,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121063</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
